--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_8_sawtooth_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_8_sawtooth_01_.xlsx
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.65000000000057</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>3.787616860040366e-06</v>
+        <v>1.973236989583071e-06</v>
       </c>
       <c r="H2" t="n">
-        <v>7.557554555769126e-05</v>
+        <v>0.0001242694811054434</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>5.170181814712669</v>
+        <v>5.499258905705647</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[2.570289719051895, 7.770073910373443]</t>
+          <t>[3.1697112300561683, 7.828806581355125]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.0001067292431273792</v>
+        <v>4.537565152951117e-06</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0002134584862547584</v>
+        <v>9.075130305902235e-06</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.874263485024541</v>
+        <v>-1.572368695490387</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-2.4403162154010807, -1.3082107546480022]</t>
+          <t>[-2.1006845771751568, -1.0440528138056173]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>1.952136230443102e-10</v>
+        <v>9.239380149850263e-09</v>
       </c>
       <c r="R2" t="n">
-        <v>3.904272460886204e-10</v>
+        <v>1.847876029970053e-08</v>
       </c>
       <c r="S2" t="n">
-        <v>13.12236772000775</v>
+        <v>13.5146221760694</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[11.704127368047192, 14.540608071968304]</t>
+          <t>[12.047871575821958, 14.981372776316842]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>7.651351351351522</v>
+        <v>6.504004004004162</v>
       </c>
       <c r="X2" t="n">
-        <v>5.34054054054066</v>
+        <v>4.318658658658766</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.962162162162384</v>
+        <v>8.689349349349559</v>
       </c>
     </row>
     <row r="3">
@@ -641,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.11000000000002</v>
+        <v>23.07000000000017</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01134909068653001</v>
+        <v>0.0006577930309357161</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03957821057477299</v>
+        <v>0.003167988793610525</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>5.283202991851413</v>
+        <v>6.766257859292183</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[0.6533987668206045, 9.913007216882221]</t>
+          <t>[2.3135395928933047, 11.21897612569106]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.02553811817119578</v>
+        <v>0.003087627183227859</v>
       </c>
       <c r="N3" t="n">
-        <v>0.02553811817119578</v>
+        <v>0.003087627183227859</v>
       </c>
       <c r="O3" t="n">
-        <v>0.6981317007977319</v>
+        <v>-1.962316131972003</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-0.06918422260157708, 1.4654476241970409]</t>
+          <t>[-2.6793162571156195, -1.2453160068283857]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.0742934316156203</v>
+        <v>1.998096494926216e-07</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0742934316156203</v>
+        <v>1.998096494926216e-07</v>
       </c>
       <c r="S3" t="n">
-        <v>13.22439215951893</v>
+        <v>15.04226245106362</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[10.78714821604182, 15.661636102996043]</t>
+          <t>[12.641670714862414, 17.44285418726482]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>19.65333333333335</v>
+        <v>7.205045045045097</v>
       </c>
       <c r="X3" t="n">
-        <v>16.95321321321323</v>
+        <v>4.572432432432464</v>
       </c>
       <c r="Y3" t="n">
-        <v>22.35345345345347</v>
+        <v>9.837657657657729</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_8_sawtooth_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_8_sawtooth_01_.xlsx
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.99000000000062</v>
+        <v>25.62000000000057</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>1.973236989583071e-06</v>
+        <v>4.556913835163101e-07</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0001242694811054434</v>
+        <v>1.068068579611138e-05</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>5.499258905705647</v>
+        <v>5.324431424668074</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[3.1697112300561683, 7.828806581355125]</t>
+          <t>[2.9988022875617437, 7.650060561774404]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>4.537565152951117e-06</v>
+        <v>8.599217376170643e-06</v>
       </c>
       <c r="N2" t="n">
-        <v>9.075130305902235e-06</v>
+        <v>1.719843475234129e-05</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.572368695490387</v>
+        <v>-1.899421384152387</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-2.1006845771751568, -1.0440528138056173]</t>
+          <t>[-2.402579366709311, -1.3962634015954638]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>9.239380149850263e-09</v>
+        <v>5.495603971894525e-13</v>
       </c>
       <c r="R2" t="n">
-        <v>1.847876029970053e-08</v>
+        <v>1.099120794378905e-12</v>
       </c>
       <c r="S2" t="n">
-        <v>13.5146221760694</v>
+        <v>12.67546901184948</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[12.047871575821958, 14.981372776316842]</t>
+          <t>[11.328519112535293, 14.022418911163673]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>6.504004004004162</v>
+        <v>7.744984984985159</v>
       </c>
       <c r="X2" t="n">
-        <v>4.318658658658766</v>
+        <v>5.693333333333463</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.689349349349559</v>
+        <v>9.796636636636855</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +652,55 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.07000000000017</v>
+        <v>22</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0006577930309357161</v>
+        <v>0.004552702204203674</v>
       </c>
       <c r="H3" t="n">
-        <v>0.003167988793610525</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>0.02093196415725827</v>
+      </c>
+      <c r="I3" t="n">
+        <v>6.929057327909049e-11</v>
+      </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>6.766257859292183</v>
+        <v>5.603349857166998</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[2.3135395928933047, 11.21897612569106]</t>
+          <t>[1.0549622104831684, 10.151737503850828]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.003087627183227859</v>
+        <v>0.01602809871264022</v>
       </c>
       <c r="N3" t="n">
-        <v>0.003087627183227859</v>
+        <v>0.01602809871264022</v>
       </c>
       <c r="O3" t="n">
-        <v>-1.962316131972003</v>
+        <v>0.8742369946926551</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-2.6793162571156195, -1.2453160068283857]</t>
+          <t>[0.1823947686768852, 1.566079220708425]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>1.998096494926216e-07</v>
+        <v>0.01353949944016564</v>
       </c>
       <c r="R3" t="n">
-        <v>1.998096494926216e-07</v>
+        <v>0.01353949944016564</v>
       </c>
       <c r="S3" t="n">
-        <v>15.04226245106362</v>
+        <v>12.86459398118933</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[12.641670714862414, 17.44285418726482]</t>
+          <t>[10.540439287306997, 15.188748675071656]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>7.205045045045097</v>
+        <v>18.93893893893894</v>
       </c>
       <c r="X3" t="n">
-        <v>4.572432432432464</v>
+        <v>16.51651651651652</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.837657657657729</v>
+        <v>21.36136136136136</v>
       </c>
     </row>
   </sheetData>
